--- a/biology/Médecine/Centre_hospitalier_montréalais/Centre_hospitalier_montréalais.xlsx
+++ b/biology/Médecine/Centre_hospitalier_montréalais/Centre_hospitalier_montréalais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_montr%C3%A9alais</t>
+          <t>Centre_hospitalier_montréalais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un centre hospitalier montréalais est un établissement de santé situé sur l'île de Montréal[1], au Québec.
-Dans la liste ci-dessous, chaque établissement est classé d'abord selon son affiliation à l'une ou l'autre des deux universités montréalaises ayant une faculté de médecine puis selon une division territoriale créée par l'adoption de la loi 10 de 2015[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un centre hospitalier montréalais est un établissement de santé situé sur l'île de Montréal, au Québec.
+Dans la liste ci-dessous, chaque établissement est classé d'abord selon son affiliation à l'une ou l'autre des deux universités montréalaises ayant une faculté de médecine puis selon une division territoriale créée par l'adoption de la loi 10 de 2015.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_montr%C3%A9alais</t>
+          <t>Centre_hospitalier_montréalais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,86 @@
           <t>Université de Montréal</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Centre hospitalier universitaire Sainte-Justine
-Centre hospitalier de l'Université de Montréal
-Hôtel-Dieu de Montréal
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Centre hospitalier universitaire Sainte-Justine</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_montréalais</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_montr%C3%A9alais</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Université de Montréal</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Centre hospitalier de l'Université de Montréal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu de Montréal
 Hôpital Notre-Dame
 Hôpital Saint-Luc
-Nouveau CHUM
-Centre intégré universitaire de santé et de services sociaux du Centre-Sud-de-l'Île-de-Montréal
-Centre de santé et de services sociaux du Sud-Ouest—Verdun  
+Nouveau CHUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_montréalais</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_montr%C3%A9alais</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Université de Montréal</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Centre intégré universitaire de santé et de services sociaux du Centre-Sud-de-l'Île-de-Montréal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Centre de santé et de services sociaux du Sud-Ouest—Verdun  
 Centre de santé et de services sociaux Jeanne-Mance  
 Centre de réadaptation en déficience intellectuelle et en troubles envahissants du développement (CRDITED) de Montréal  
 Centre de réadaptation en dépendance de Montréal - Institut universitaire  
@@ -530,15 +612,83 @@
 Institut Raymond-Dewar  
 Institut universitaire de gériatrie de Montréal  
 La corporation du Centre de réadaptation Lucie-Bruneau  
-Le Centre jeunesse de Montréal - Institut universitaire
-Centre intégré universitaire de santé et de services sociaux du Nord-de-l'Île-de-Montréal
-CSSS de Bordeaux-Cartierville-Saint-Laurent
+Le Centre jeunesse de Montréal - Institut universitaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_montréalais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_montr%C3%A9alais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Université de Montréal</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Centre intégré universitaire de santé et de services sociaux du Nord-de-l'Île-de-Montréal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CSSS de Bordeaux-Cartierville-Saint-Laurent
 CSSS d’Ahuntsic et Montréal-Nord
 CSSS du Cœur-de-l'Île
 Hôpital Rivière-des-Prairies
-Hôpital du Sacré-Cœur de Montréal
-Centre intégré universitaire de santé et de services sociaux de l'Est-de-l'Île-de-Montréal
-CSSS de Saint-Léonard et Saint-Michel
+Hôpital du Sacré-Cœur de Montréal</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_montréalais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_montr%C3%A9alais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Université de Montréal</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Centre intégré universitaire de santé et de services sociaux de l'Est-de-l'Île-de-Montréal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CSSS de Saint-Léonard et Saint-Michel
 Institut Canadien-Polonais du Bien-Être Inc.
 Hôpital Santa Cabrini
 CSSS de la Pointe-de-l’Île
@@ -548,52 +698,125 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_montr%C3%A9alais</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_montréalais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_montr%C3%A9alais</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Université McGill</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Centre universitaire de santé McGill (McGill University Health Centre)
-Hôpital Royal Victoria
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Centre universitaire de santé McGill (McGill University Health Centre)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hôpital Royal Victoria
 Hôpital général de Montréal
 Institut Allan Memorial
 Hôpital de Montréal pour enfants (Montreal Children's Hospital)
 Shriners Hospital for Children of Canada
 Institut et hôpital neurologiques de Montréal
 Institut thoracique de Montréal (Montreal Chest Institute)
-Hôpital de Lachine
-Centre intégré universitaire de santé et de services sociaux de l'Ouest-de-l'Île-de-Montréal
-Voir la page spécifique : Centre intégré universitaire de santé et de services sociaux de l’Ouest-de-l’Île-de-Montréal
+Hôpital de Lachine</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_montréalais</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_montr%C3%A9alais</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Université McGill</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Centre intégré universitaire de santé et de services sociaux de l'Ouest-de-l'Île-de-Montréal</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Voir la page spécifique : Centre intégré universitaire de santé et de services sociaux de l’Ouest-de-l’Île-de-Montréal
 Établissements :
 Centre de réadaptation de l’Ouest de Montréal
 Centre de soins prolongés Grace Dart
 Hôpital général du Lakeshore
 Centre hospitalier de St. Mary
 Institut universitaire en santé mentale Douglas
-Les centres de la jeunesse et de la famille Batshaw
-Centre intégré universitaire de santé et de services sociaux du Centre-Ouest-de-l’Île-de-Montréal
-Centres de santé et de services sociaux (CSSS) :
+Les centres de la jeunesse et de la famille Batshaw</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_montréalais</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_montr%C3%A9alais</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Université McGill</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Centre intégré universitaire de santé et de services sociaux du Centre-Ouest-de-l’Île-de-Montréal</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Centres de santé et de services sociaux (CSSS) :
 CSSS Cavendish
 CSSS de la Montagne
 Établissements régionaux :
